--- a/web_auto/test_data.xlsx
+++ b/web_auto/test_data.xlsx
@@ -23,7 +23,7 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -32,15 +32,108 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Microsoft YaHei"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -70,117 +163,18 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -191,6 +185,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -221,121 +335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,30 +366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,60 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,6 +400,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -470,6 +449,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,10 +484,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -502,19 +496,19 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -523,120 +517,117 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -992,47 +983,47 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col width="29.625" customWidth="1" style="2" min="1" max="1"/>
-    <col width="16.375" customWidth="1" style="2" min="2" max="2"/>
-    <col width="10.75" customWidth="1" style="2" min="3" max="3"/>
+    <col width="29.625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="16.375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10.75" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>https://192.168.1.28:8443/</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>https://192.168.1.140:8443/</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>systemadmin</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Est@Spc820</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Est@2018</t>
         </is>
       </c>
     </row>
@@ -1076,53 +1067,53 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>cs1226141533</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>cs1226141537</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>cs1226141540</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>cs1227163432.local</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>cs1227163437.local</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>cs1227163442.local</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>cs1226141601</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>cs1226141605</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>cs1226141609</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>cs1227163515.local</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>cs1227163519.local</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>cs1227163524.local</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cs1226141629</t>
+          <t>cs1227163556.local</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cs1226141633</t>
+          <t>cs1227163602.local</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cs1226141637</t>
+          <t>cs1227163607.local</t>
         </is>
       </c>
     </row>

--- a/web_auto/test_data.xlsx
+++ b/web_auto/test_data.xlsx
@@ -34,7 +34,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -42,7 +42,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -51,6 +51,75 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -73,52 +142,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -140,23 +163,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,13 +175,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,6 +185,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -197,60 +281,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -305,31 +335,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,18 +366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,45 +454,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -449,21 +464,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -496,133 +496,133 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,7 +983,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1013,7 +1013,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://192.168.1.140:8443/</t>
+          <t>https://192.168.1.246:8443/</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -1069,51 +1069,51 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>cs1227163432.local</t>
+          <t>cs0102141129.local</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>cs1227163437.local</t>
+          <t>cs0102141134.local</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>cs1227163442.local</t>
+          <t>cs0102141139.local</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>cs1227163515.local</t>
+          <t>cs0102141211.local</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>cs1227163519.local</t>
+          <t>cs0102141216.local</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>cs1227163524.local</t>
+          <t>cs0102141221.local</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cs1227163556.local</t>
+          <t>cs0102141252.local</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cs1227163602.local</t>
+          <t>cs0102141257.local</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cs1227163607.local</t>
+          <t>cs0102141302.local</t>
         </is>
       </c>
     </row>

--- a/web_auto/test_data.xlsx
+++ b/web_auto/test_data.xlsx
@@ -1,184 +1,234 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28125" windowHeight="12480"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approver_list" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="approver_list" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>https://192.168.1.55:8443/</t>
+  </si>
+  <si>
+    <t>systemadmin</t>
+  </si>
+  <si>
+    <t>Est@Spc820</t>
+  </si>
+  <si>
+    <t>shenpiyuan101</t>
+  </si>
+  <si>
+    <t>shenpiyuan102</t>
+  </si>
+  <si>
+    <t>shenpiyuan103</t>
+  </si>
+  <si>
+    <t>shenpiyuan201</t>
+  </si>
+  <si>
+    <t>shenpiyuan202</t>
+  </si>
+  <si>
+    <t>shenpiyuan203</t>
+  </si>
+  <si>
+    <t>shenpiyuan301</t>
+  </si>
+  <si>
+    <t>shenpiyuan302</t>
+  </si>
+  <si>
+    <t>shenpiyuan303</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -478,160 +528,160 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,6 +737,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -975,149 +1030,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col width="29.625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="16.375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="10.75" customWidth="1" style="1" min="3" max="3"/>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>https://192.168.1.246:8443/</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>systemadmin</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Est@2018</t>
-        </is>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>cs0102141129.local</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>cs0102141134.local</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>cs0102141139.local</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>cs0102141211.local</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>cs0102141216.local</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>cs0102141221.local</t>
-        </is>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cs0102141252.local</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cs0102141257.local</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cs0102141302.local</t>
-        </is>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>